--- a/data/trans_orig/P05A01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A01-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{418D6363-1BEE-4B0A-A5B4-0812EF45D624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D75FFBA8-CD1A-4E07-9FD1-CB425D5F071E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{04584D6F-9FFC-4129-ACBC-C35736942E57}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{270AF2D9-F9AD-4332-96B9-7D5D18A4A26A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="898">
   <si>
     <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>41,0%</t>
   </si>
   <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>47,19%</t>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
   </si>
   <si>
     <t>41,63%</t>
   </si>
   <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
   </si>
   <si>
     <t>41,3%</t>
   </si>
   <si>
-    <t>36,64%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,7 +107,7 @@
     <t>48,94%</t>
   </si>
   <si>
-    <t>42,83%</t>
+    <t>43,07%</t>
   </si>
   <si>
     <t>54,94%</t>
@@ -116,16 +116,16 @@
     <t>48,93%</t>
   </si>
   <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>44,63%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -134,2611 +134,2605 @@
     <t>10,06%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
   </si>
   <si>
     <t>9,45%</t>
   </si>
   <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>59,3%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>63,4%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>54,84%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>49,21%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>52,85%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>70,63%</t>
+  </si>
+  <si>
+    <t>64,11%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>30,86%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>66,38%</t>
+  </si>
+  <si>
+    <t>61,82%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>65,81%</t>
+  </si>
+  <si>
+    <t>61,64%</t>
+  </si>
+  <si>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
+  </si>
+  <si>
+    <t>63,97%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>45,92%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>72,94%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>59,3%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>52,64%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>54,9%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>29,9%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>36,33%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>45,91%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>70,63%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>45,96%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>61,57%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>65,81%</t>
-  </si>
-  <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>69,9%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>63,66%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>68,09%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>60,95%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>62,77%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>54,84%</t>
-  </si>
-  <si>
-    <t>63,4%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>69,88%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>56,29%</t>
-  </si>
-  <si>
-    <t>63,82%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>79,94%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>67,08%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>27,87%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>5,55%</t>
   </si>
   <si>
-    <t>5,0%</t>
+    <t>6,14%</t>
   </si>
 </sst>
 </file>
@@ -3150,7 +3144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293F10CB-E48F-4611-BC40-E1F682AD239F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FCA3E6-32BF-453F-B80B-59937B150596}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4436,13 +4430,13 @@
         <v>81392</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,7 +4492,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4510,13 +4504,13 @@
         <v>311936</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H28" s="7">
         <v>308</v>
@@ -4525,13 +4519,13 @@
         <v>317759</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M28" s="7">
         <v>604</v>
@@ -4540,13 +4534,13 @@
         <v>629695</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4555,13 @@
         <v>203348</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H29" s="7">
         <v>181</v>
@@ -4576,13 +4570,13 @@
         <v>185891</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M29" s="7">
         <v>386</v>
@@ -4591,13 +4585,13 @@
         <v>389239</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4824,7 +4818,7 @@
         <v>224</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>225</v>
+        <v>37</v>
       </c>
       <c r="H34" s="7">
         <v>65</v>
@@ -4833,13 +4827,13 @@
         <v>69138</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M34" s="7">
         <v>106</v>
@@ -4848,13 +4842,13 @@
         <v>110876</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4916,13 @@
         <v>1731295</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H36" s="7">
         <v>1651</v>
@@ -4937,13 +4931,13 @@
         <v>1697680</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="L36" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M36" s="7">
         <v>3337</v>
@@ -4952,13 +4946,13 @@
         <v>3428975</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4967,13 @@
         <v>1216475</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>1196</v>
@@ -4988,13 +4982,13 @@
         <v>1221767</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M37" s="7">
         <v>2407</v>
@@ -5003,13 +4997,13 @@
         <v>2438242</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5018,13 @@
         <v>327061</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H38" s="7">
         <v>446</v>
@@ -5039,13 +5033,13 @@
         <v>455922</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M38" s="7">
         <v>761</v>
@@ -5054,13 +5048,13 @@
         <v>782983</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,7 +5110,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -5140,7 +5134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05154BD6-8275-40E3-AB9C-D76C8FE464FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782E7A7B-9449-4A0B-A21E-E6214A1F3B48}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5157,7 +5151,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5262,39 +5256,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,39 +5301,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,39 +5346,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5397,39 +5391,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5446,13 +5440,13 @@
         <v>335590</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -5461,13 +5455,13 @@
         <v>344666</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>631</v>
@@ -5476,13 +5470,13 @@
         <v>680257</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,13 +5491,13 @@
         <v>129778</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H9" s="7">
         <v>117</v>
@@ -5512,13 +5506,13 @@
         <v>126201</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M9" s="7">
         <v>236</v>
@@ -5527,13 +5521,13 @@
         <v>255979</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,13 +5542,13 @@
         <v>40159</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -5563,13 +5557,13 @@
         <v>52898</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -5578,13 +5572,13 @@
         <v>93056</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,13 +5646,13 @@
         <v>221595</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H12" s="7">
         <v>246</v>
@@ -5667,13 +5661,13 @@
         <v>265433</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M12" s="7">
         <v>461</v>
@@ -5682,13 +5676,13 @@
         <v>487028</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,13 +5697,13 @@
         <v>85811</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -5718,13 +5712,13 @@
         <v>62673</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M13" s="7">
         <v>146</v>
@@ -5876,10 +5870,10 @@
         <v>317</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>46</v>
+        <v>318</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M16" s="7">
         <v>829</v>
@@ -5888,13 +5882,13 @@
         <v>891095</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,10 +5903,10 @@
         <v>139266</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>93</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>324</v>
@@ -5945,7 +5939,7 @@
         <v>329</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5954,13 @@
         <v>64031</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -5975,13 +5969,13 @@
         <v>79039</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="M18" s="7">
         <v>129</v>
@@ -5990,13 +5984,13 @@
         <v>143070</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,13 +6058,13 @@
         <v>144215</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H20" s="7">
         <v>131</v>
@@ -6079,13 +6073,13 @@
         <v>137449</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M20" s="7">
         <v>265</v>
@@ -6094,13 +6088,13 @@
         <v>281664</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6115,13 +6109,13 @@
         <v>51461</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H21" s="7">
         <v>66</v>
@@ -6130,13 +6124,13 @@
         <v>68222</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M21" s="7">
         <v>112</v>
@@ -6145,13 +6139,13 @@
         <v>119683</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,13 +6160,13 @@
         <v>16942</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -6181,13 +6175,13 @@
         <v>13920</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -6196,13 +6190,13 @@
         <v>30862</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>364</v>
+        <v>63</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>365</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,13 +6264,13 @@
         <v>189387</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="H24" s="7">
         <v>205</v>
@@ -6285,13 +6279,13 @@
         <v>214613</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="M24" s="7">
         <v>388</v>
@@ -6300,13 +6294,13 @@
         <v>404000</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,13 +6315,13 @@
         <v>73530</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -6336,13 +6330,13 @@
         <v>58321</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>380</v>
+        <v>196</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -6351,13 +6345,13 @@
         <v>131851</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6366,13 @@
         <v>11065</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -6387,13 +6381,13 @@
         <v>7096</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -6402,13 +6396,13 @@
         <v>18161</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6464,7 +6458,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6476,13 +6470,13 @@
         <v>431956</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="H28" s="7">
         <v>447</v>
@@ -6491,13 +6485,13 @@
         <v>487996</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M28" s="7">
         <v>844</v>
@@ -6506,13 +6500,13 @@
         <v>919952</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6527,13 +6521,13 @@
         <v>189784</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H29" s="7">
         <v>155</v>
@@ -6542,13 +6536,13 @@
         <v>167811</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>95</v>
+        <v>400</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M29" s="7">
         <v>337</v>
@@ -6557,13 +6551,13 @@
         <v>357595</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,13 +6572,13 @@
         <v>41048</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -6593,13 +6587,13 @@
         <v>38046</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="M30" s="7">
         <v>73</v>
@@ -6608,13 +6602,13 @@
         <v>79094</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>229</v>
+        <v>413</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,13 +6676,13 @@
         <v>557001</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="H32" s="7">
         <v>567</v>
@@ -6697,13 +6691,13 @@
         <v>615521</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M32" s="7">
         <v>1082</v>
@@ -6712,13 +6706,13 @@
         <v>1172522</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6733,13 +6727,13 @@
         <v>194396</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="H33" s="7">
         <v>160</v>
@@ -6748,13 +6742,13 @@
         <v>176400</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="M33" s="7">
         <v>336</v>
@@ -6763,13 +6757,13 @@
         <v>370796</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6784,13 +6778,13 @@
         <v>27702</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="H34" s="7">
         <v>30</v>
@@ -6799,13 +6793,13 @@
         <v>31932</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="M34" s="7">
         <v>56</v>
@@ -6814,13 +6808,13 @@
         <v>59633</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6888,13 +6882,13 @@
         <v>2339811</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H36" s="7">
         <v>2313</v>
@@ -6903,28 +6897,28 @@
         <v>2496706</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>447</v>
+        <v>287</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="M36" s="7">
         <v>4500</v>
       </c>
       <c r="N36" s="7">
-        <v>4836518</v>
+        <v>4836517</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6939,13 +6933,13 @@
         <v>864025</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H37" s="7">
         <v>762</v>
@@ -6954,13 +6948,13 @@
         <v>819907</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M37" s="7">
         <v>1577</v>
@@ -6969,13 +6963,13 @@
         <v>1683933</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6990,13 +6984,13 @@
         <v>216633</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>463</v>
+        <v>228</v>
       </c>
       <c r="H38" s="7">
         <v>218</v>
@@ -7005,13 +6999,13 @@
         <v>235845</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M38" s="7">
         <v>419</v>
@@ -7020,13 +7014,13 @@
         <v>452478</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7068,7 +7062,7 @@
         <v>6496</v>
       </c>
       <c r="N39" s="7">
-        <v>6972929</v>
+        <v>6972928</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>39</v>
@@ -7082,7 +7076,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -7106,7 +7100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77DE6EE3-D4F7-400E-8B31-69E1990C66CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF5F857-E2DF-437D-8F68-51FB6BAF6D4C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7123,7 +7117,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7230,13 +7224,13 @@
         <v>174320</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H4" s="7">
         <v>169</v>
@@ -7245,13 +7239,13 @@
         <v>169103</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M4" s="7">
         <v>328</v>
@@ -7260,13 +7254,13 @@
         <v>343423</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7281,13 +7275,13 @@
         <v>86879</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H5" s="7">
         <v>63</v>
@@ -7296,13 +7290,13 @@
         <v>69391</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>479</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M5" s="7">
         <v>142</v>
@@ -7311,13 +7305,13 @@
         <v>156269</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>485</v>
+        <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7332,13 +7326,13 @@
         <v>31474</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>61</v>
+        <v>484</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="H6" s="7">
         <v>44</v>
@@ -7347,13 +7341,13 @@
         <v>49236</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>491</v>
+        <v>197</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
@@ -7365,10 +7359,10 @@
         <v>121</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7436,13 +7430,13 @@
         <v>331726</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H8" s="7">
         <v>318</v>
@@ -7451,13 +7445,13 @@
         <v>344572</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="M8" s="7">
         <v>627</v>
@@ -7466,13 +7460,13 @@
         <v>676298</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7487,13 +7481,13 @@
         <v>138553</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H9" s="7">
         <v>138</v>
@@ -7502,13 +7496,13 @@
         <v>147669</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>507</v>
+        <v>425</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>509</v>
+        <v>154</v>
       </c>
       <c r="M9" s="7">
         <v>273</v>
@@ -7517,13 +7511,13 @@
         <v>286222</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7538,13 +7532,13 @@
         <v>32296</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -7553,13 +7547,13 @@
         <v>30843</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -7568,13 +7562,13 @@
         <v>63139</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>521</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7642,13 +7636,13 @@
         <v>261921</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>523</v>
+        <v>290</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="H12" s="7">
         <v>266</v>
@@ -7657,13 +7651,13 @@
         <v>269973</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="M12" s="7">
         <v>541</v>
@@ -7672,13 +7666,13 @@
         <v>531894</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7693,13 +7687,13 @@
         <v>50964</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>533</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -7708,13 +7702,13 @@
         <v>59957</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>534</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -7723,13 +7717,13 @@
         <v>110921</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7744,13 +7738,13 @@
         <v>5680</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -7759,13 +7753,13 @@
         <v>6379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -7774,13 +7768,13 @@
         <v>12059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7848,13 +7842,13 @@
         <v>257985</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="H16" s="7">
         <v>246</v>
@@ -7863,13 +7857,13 @@
         <v>264291</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="M16" s="7">
         <v>490</v>
@@ -7878,13 +7872,13 @@
         <v>522276</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7899,13 +7893,13 @@
         <v>74050</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="H17" s="7">
         <v>75</v>
@@ -7914,13 +7908,13 @@
         <v>81496</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="M17" s="7">
         <v>148</v>
@@ -7929,13 +7923,13 @@
         <v>155546</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>141</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7950,13 +7944,13 @@
         <v>36662</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -7965,13 +7959,13 @@
         <v>41496</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="M18" s="7">
         <v>73</v>
@@ -7980,13 +7974,13 @@
         <v>78158</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8054,13 +8048,13 @@
         <v>125140</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="H20" s="7">
         <v>146</v>
@@ -8069,13 +8063,13 @@
         <v>142462</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>578</v>
+        <v>366</v>
       </c>
       <c r="M20" s="7">
         <v>272</v>
@@ -8084,13 +8078,13 @@
         <v>267603</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8105,13 +8099,13 @@
         <v>77078</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="H21" s="7">
         <v>60</v>
@@ -8120,13 +8114,13 @@
         <v>60414</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="M21" s="7">
         <v>137</v>
@@ -8135,13 +8129,13 @@
         <v>137492</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8156,13 +8150,13 @@
         <v>9003</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -8171,13 +8165,13 @@
         <v>15710</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>332</v>
+        <v>584</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -8186,13 +8180,13 @@
         <v>24713</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>414</v>
+        <v>588</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8260,13 +8254,13 @@
         <v>221176</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="H24" s="7">
         <v>221</v>
@@ -8275,13 +8269,13 @@
         <v>228920</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="M24" s="7">
         <v>439</v>
@@ -8290,13 +8284,13 @@
         <v>450096</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8311,13 +8305,13 @@
         <v>37724</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -8326,13 +8320,13 @@
         <v>29452</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="M25" s="7">
         <v>65</v>
@@ -8341,13 +8335,13 @@
         <v>67176</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>614</v>
+        <v>556</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8362,13 +8356,13 @@
         <v>4222</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>308</v>
+        <v>608</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -8377,13 +8371,13 @@
         <v>13708</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>619</v>
+        <v>306</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -8392,13 +8386,13 @@
         <v>17931</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8454,7 +8448,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8466,13 +8460,13 @@
         <v>405190</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="H28" s="7">
         <v>387</v>
@@ -8481,13 +8475,13 @@
         <v>415955</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>627</v>
+        <v>207</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="M28" s="7">
         <v>745</v>
@@ -8496,13 +8490,13 @@
         <v>821146</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>289</v>
+        <v>621</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8517,13 +8511,13 @@
         <v>215948</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="H29" s="7">
         <v>212</v>
@@ -8532,13 +8526,13 @@
         <v>226260</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="M29" s="7">
         <v>403</v>
@@ -8547,13 +8541,13 @@
         <v>442209</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>98</v>
+        <v>628</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>101</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8568,13 +8562,13 @@
         <v>35419</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>440</v>
+        <v>632</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -8583,13 +8577,13 @@
         <v>47808</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="M30" s="7">
         <v>77</v>
@@ -8598,10 +8592,10 @@
         <v>83227</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>37</v>
@@ -8672,13 +8666,13 @@
         <v>631706</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>127</v>
+        <v>640</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="H32" s="7">
         <v>635</v>
@@ -8687,13 +8681,13 @@
         <v>690710</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="M32" s="7">
         <v>1243</v>
@@ -8702,13 +8696,13 @@
         <v>1322417</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>530</v>
+        <v>647</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8723,13 +8717,13 @@
         <v>128641</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>654</v>
+        <v>121</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="H33" s="7">
         <v>96</v>
@@ -8738,13 +8732,13 @@
         <v>106436</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>491</v>
+        <v>650</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>595</v>
+        <v>651</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="M33" s="7">
         <v>221</v>
@@ -8753,13 +8747,13 @@
         <v>235078</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>657</v>
+        <v>334</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8774,13 +8768,13 @@
         <v>18236</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="H34" s="7">
         <v>22</v>
@@ -8789,13 +8783,13 @@
         <v>26141</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>442</v>
+        <v>660</v>
       </c>
       <c r="M34" s="7">
         <v>39</v>
@@ -8804,13 +8798,13 @@
         <v>44377</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>362</v>
+        <v>657</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8878,13 +8872,13 @@
         <v>2409164</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H36" s="7">
         <v>2388</v>
@@ -8893,13 +8887,13 @@
         <v>2525987</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="M36" s="7">
         <v>4685</v>
@@ -8908,13 +8902,13 @@
         <v>4935152</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8929,13 +8923,13 @@
         <v>809838</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>677</v>
+        <v>328</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="H37" s="7">
         <v>732</v>
@@ -8944,13 +8938,13 @@
         <v>781075</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>681</v>
+        <v>141</v>
       </c>
       <c r="M37" s="7">
         <v>1503</v>
@@ -8959,13 +8953,13 @@
         <v>1590913</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8980,13 +8974,13 @@
         <v>172992</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="H38" s="7">
         <v>213</v>
@@ -8995,13 +8989,13 @@
         <v>231322</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>689</v>
+        <v>587</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>170</v>
+        <v>683</v>
       </c>
       <c r="M38" s="7">
         <v>374</v>
@@ -9010,13 +9004,13 @@
         <v>404314</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9072,7 +9066,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -9096,7 +9090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B76722EE-3678-4927-8A17-F5CC5F70CB73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1000F44D-4A8F-4CC0-8D63-0F241B34B099}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9113,7 +9107,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9220,13 +9214,13 @@
         <v>247057</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="H4" s="7">
         <v>521</v>
@@ -9235,13 +9229,13 @@
         <v>261551</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="M4" s="7">
         <v>835</v>
@@ -9250,13 +9244,13 @@
         <v>508607</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9271,13 +9265,13 @@
         <v>13241</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>702</v>
+        <v>387</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -9286,13 +9280,13 @@
         <v>9216</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>706</v>
+        <v>529</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>466</v>
+        <v>699</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
@@ -9301,13 +9295,13 @@
         <v>22457</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>665</v>
+        <v>701</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9325,10 +9319,10 @@
         <v>144</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -9337,13 +9331,13 @@
         <v>636</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>144</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -9352,13 +9346,13 @@
         <v>636</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>144</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9426,13 +9420,13 @@
         <v>411485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="H8" s="7">
         <v>570</v>
@@ -9441,13 +9435,13 @@
         <v>447659</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="M8" s="7">
         <v>864</v>
@@ -9456,13 +9450,13 @@
         <v>859144</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9477,13 +9471,13 @@
         <v>96690</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="H9" s="7">
         <v>125</v>
@@ -9492,13 +9486,13 @@
         <v>91331</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="M9" s="7">
         <v>204</v>
@@ -9507,13 +9501,13 @@
         <v>188021</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9528,13 +9522,13 @@
         <v>11122</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>386</v>
+        <v>727</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>389</v>
+        <v>728</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -9543,13 +9537,13 @@
         <v>15577</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>619</v>
+        <v>439</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>733</v>
+        <v>535</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
@@ -9558,13 +9552,13 @@
         <v>26699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9632,13 +9626,13 @@
         <v>274618</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>605</v>
+        <v>734</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="H12" s="7">
         <v>440</v>
@@ -9647,13 +9641,13 @@
         <v>298590</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="M12" s="7">
         <v>746</v>
@@ -9662,13 +9656,13 @@
         <v>573208</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9683,13 +9677,13 @@
         <v>24023</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -9698,13 +9692,13 @@
         <v>48292</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
@@ -9713,13 +9707,13 @@
         <v>72315</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>64</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9734,13 +9728,13 @@
         <v>22550</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="H14" s="7">
         <v>36</v>
@@ -9749,13 +9743,13 @@
         <v>26401</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -9764,13 +9758,13 @@
         <v>48951</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>760</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9838,13 +9832,13 @@
         <v>238473</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="H16" s="7">
         <v>453</v>
@@ -9853,13 +9847,13 @@
         <v>323961</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="M16" s="7">
         <v>659</v>
@@ -9868,13 +9862,13 @@
         <v>562433</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9889,13 +9883,13 @@
         <v>73502</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>350</v>
+        <v>769</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>51</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
         <v>102</v>
@@ -9904,13 +9898,13 @@
         <v>79713</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="M17" s="7">
         <v>174</v>
@@ -9919,13 +9913,13 @@
         <v>153215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>432</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9940,13 +9934,13 @@
         <v>10266</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>779</v>
+        <v>731</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
@@ -9955,13 +9949,13 @@
         <v>24220</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
@@ -9970,13 +9964,13 @@
         <v>34486</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>784</v>
+        <v>412</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>786</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10044,13 +10038,13 @@
         <v>166355</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>788</v>
+        <v>709</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="H20" s="7">
         <v>437</v>
@@ -10059,13 +10053,13 @@
         <v>232040</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="M20" s="7">
         <v>673</v>
@@ -10074,13 +10068,13 @@
         <v>398395</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>794</v>
+        <v>595</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>795</v>
+        <v>788</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10095,13 +10089,13 @@
         <v>24878</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="H21" s="7">
         <v>55</v>
@@ -10110,13 +10104,13 @@
         <v>26396</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="M21" s="7">
         <v>90</v>
@@ -10125,13 +10119,13 @@
         <v>51274</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10146,13 +10140,13 @@
         <v>5515</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>807</v>
+        <v>800</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -10161,13 +10155,13 @@
         <v>1077</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>808</v>
+        <v>801</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>661</v>
+        <v>803</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -10176,13 +10170,13 @@
         <v>6592</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>810</v>
+        <v>656</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10250,13 +10244,13 @@
         <v>235149</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="H24" s="7">
         <v>390</v>
@@ -10265,13 +10259,13 @@
         <v>231614</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="M24" s="7">
         <v>706</v>
@@ -10280,13 +10274,13 @@
         <v>466763</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10301,13 +10295,13 @@
         <v>28464</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>119</v>
+        <v>815</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>488</v>
+        <v>381</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
@@ -10316,13 +10310,13 @@
         <v>28115</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>822</v>
+        <v>119</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -10331,13 +10325,13 @@
         <v>56579</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>363</v>
+        <v>819</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10352,13 +10346,13 @@
         <v>13610</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>703</v>
+        <v>823</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>783</v>
+        <v>824</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -10367,13 +10361,13 @@
         <v>15893</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>829</v>
+        <v>360</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -10382,13 +10376,13 @@
         <v>29503</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10444,7 +10438,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10456,13 +10450,13 @@
         <v>404100</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="H28" s="7">
         <v>643</v>
@@ -10471,13 +10465,13 @@
         <v>457006</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="M28" s="7">
         <v>1031</v>
@@ -10486,13 +10480,13 @@
         <v>861105</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10507,13 +10501,13 @@
         <v>152739</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>844</v>
+        <v>326</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="H29" s="7">
         <v>197</v>
@@ -10522,13 +10516,13 @@
         <v>250468</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="M29" s="7">
         <v>343</v>
@@ -10537,13 +10531,13 @@
         <v>403207</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10558,13 +10552,13 @@
         <v>69717</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>852</v>
+        <v>227</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>572</v>
+        <v>847</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="H30" s="7">
         <v>118</v>
@@ -10573,13 +10567,13 @@
         <v>95284</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>66</v>
+        <v>829</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="M30" s="7">
         <v>180</v>
@@ -10588,13 +10582,13 @@
         <v>165002</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>857</v>
+        <v>796</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>801</v>
+        <v>852</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10662,28 +10656,28 @@
         <v>634938</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="H32" s="7">
         <v>755</v>
       </c>
       <c r="I32" s="7">
-        <v>607682</v>
+        <v>607683</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="M32" s="7">
         <v>1298</v>
@@ -10692,13 +10686,13 @@
         <v>1242621</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10713,28 +10707,28 @@
         <v>180428</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>508</v>
+        <v>863</v>
       </c>
       <c r="H33" s="7">
         <v>256</v>
       </c>
       <c r="I33" s="7">
-        <v>215432</v>
+        <v>215433</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="M33" s="7">
         <v>432</v>
@@ -10743,13 +10737,13 @@
         <v>395861</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>873</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10764,13 +10758,13 @@
         <v>44062</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>874</v>
+        <v>434</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>66</v>
+        <v>870</v>
       </c>
       <c r="H34" s="7">
         <v>50</v>
@@ -10779,13 +10773,13 @@
         <v>44296</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>877</v>
+        <v>409</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="M34" s="7">
         <v>93</v>
@@ -10794,13 +10788,13 @@
         <v>88358</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>461</v>
+        <v>405</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10827,7 +10821,7 @@
         <v>1061</v>
       </c>
       <c r="I35" s="7">
-        <v>867411</v>
+        <v>867412</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>39</v>
@@ -10868,13 +10862,13 @@
         <v>2612174</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>881</v>
+        <v>713</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="H36" s="7">
         <v>4209</v>
@@ -10883,13 +10877,13 @@
         <v>2860102</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>551</v>
+        <v>877</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="M36" s="7">
         <v>6812</v>
@@ -10898,13 +10892,13 @@
         <v>5472276</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>770</v>
+        <v>881</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10919,13 +10913,13 @@
         <v>593964</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="H37" s="7">
         <v>856</v>
@@ -10934,13 +10928,13 @@
         <v>748964</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>893</v>
+        <v>840</v>
       </c>
       <c r="M37" s="7">
         <v>1447</v>
@@ -10949,13 +10943,13 @@
         <v>1342929</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>349</v>
+        <v>890</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10970,13 +10964,13 @@
         <v>176842</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>514</v>
+        <v>892</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="H38" s="7">
         <v>298</v>
@@ -10985,13 +10979,13 @@
         <v>223384</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>618</v>
+        <v>894</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>464</v>
+        <v>895</v>
       </c>
       <c r="M38" s="7">
         <v>476</v>
@@ -11000,13 +10994,13 @@
         <v>400226</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>899</v>
+        <v>822</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>786</v>
+        <v>897</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11062,7 +11056,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A01-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P05A01-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D75FFBA8-CD1A-4E07-9FD1-CB425D5F071E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B9AD9171-B765-4900-8486-319F109FC6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{270AF2D9-F9AD-4332-96B9-7D5D18A4A26A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{90CAF011-899C-4A37-9856-40F1A33C2032}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="922">
   <si>
     <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -818,7 +818,82 @@
     <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
   </si>
   <si>
     <t>66,38%</t>
@@ -983,1528 +1058,1528 @@
     <t>6,17%</t>
   </si>
   <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>73,27%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>60,2%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>68,96%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>76,64%</t>
+  </si>
+  <si>
+    <t>71,59%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>73,73%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>52,42%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
   </si>
   <si>
     <t>22,46%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>12,6%</t>
   </si>
   <si>
-    <t>67,83%</t>
-  </si>
-  <si>
-    <t>60,96%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
-  </si>
-  <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
-  </si>
-  <si>
-    <t>71,59%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>72,92%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>71,1%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>59,56%</t>
-  </si>
-  <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>52,42%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>63,29%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>64,07%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>74,85%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
+    <t>81,5%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
   </si>
   <si>
     <t>10,17%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>80,39%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
+    <t>8,24%</t>
   </si>
   <si>
     <t>4,91%</t>
@@ -2513,226 +2588,223 @@
     <t>2,95%</t>
   </si>
   <si>
-    <t>7,95%</t>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>68,03%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
   </si>
 </sst>
 </file>
@@ -3144,7 +3216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7FCA3E6-32BF-453F-B80B-59937B150596}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B84D315-BE21-47EE-A42B-AB0977C9F290}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5134,7 +5206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782E7A7B-9449-4A0B-A21E-E6214A1F3B48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A4A65C7-7B72-469D-BD1B-06CF22AA457C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5252,43 +5324,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>167</v>
+      </c>
+      <c r="D4" s="7">
+        <v>174864</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>259</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>156</v>
+      </c>
+      <c r="I4" s="7">
+        <v>171647</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>323</v>
+      </c>
+      <c r="N4" s="7">
+        <v>346511</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,43 +5375,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>75</v>
+      </c>
+      <c r="D5" s="7">
+        <v>75373</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="I5" s="7">
+        <v>69358</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>136</v>
+      </c>
+      <c r="N5" s="7">
+        <v>144732</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,43 +5426,49 @@
         <v>29</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D6" s="7">
+        <v>40313</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>259</v>
+        <v>119</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="I6" s="7">
+        <v>42359</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>72</v>
+      </c>
+      <c r="N6" s="7">
+        <v>82672</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5387,43 +5477,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D7" s="7">
+        <v>290550</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>253</v>
+      </c>
+      <c r="I7" s="7">
+        <v>283364</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>531</v>
+      </c>
+      <c r="N7" s="7">
+        <v>573914</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5536,13 @@
         <v>335590</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="H8" s="7">
         <v>314</v>
@@ -5455,13 +5551,13 @@
         <v>344666</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="M8" s="7">
         <v>631</v>
@@ -5470,13 +5566,13 @@
         <v>680257</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5587,13 @@
         <v>129778</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="H9" s="7">
         <v>117</v>
@@ -5506,13 +5602,13 @@
         <v>126201</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="M9" s="7">
         <v>236</v>
@@ -5521,13 +5617,13 @@
         <v>255979</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5542,13 +5638,13 @@
         <v>40159</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>49</v>
@@ -5557,13 +5653,13 @@
         <v>52898</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -5572,13 +5668,13 @@
         <v>93056</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,13 +5742,13 @@
         <v>221595</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="H12" s="7">
         <v>246</v>
@@ -5661,13 +5757,13 @@
         <v>265433</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="M12" s="7">
         <v>461</v>
@@ -5676,13 +5772,13 @@
         <v>487028</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,13 +5793,13 @@
         <v>85811</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>59</v>
@@ -5712,13 +5808,13 @@
         <v>62673</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>146</v>
@@ -5727,13 +5823,13 @@
         <v>148484</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5748,13 +5844,13 @@
         <v>15688</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -5763,13 +5859,13 @@
         <v>12914</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>28</v>
@@ -5778,13 +5874,13 @@
         <v>28601</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,49 +5942,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>426</v>
+        <v>259</v>
       </c>
       <c r="D16" s="7">
-        <v>460067</v>
+        <v>285204</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
-        <v>403</v>
+        <v>247</v>
       </c>
       <c r="I16" s="7">
-        <v>431027</v>
+        <v>259380</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
-        <v>829</v>
+        <v>506</v>
       </c>
       <c r="N16" s="7">
-        <v>891095</v>
+        <v>544585</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5897,49 +5993,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="D17" s="7">
-        <v>139266</v>
+        <v>63893</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
-        <v>148</v>
+        <v>87</v>
       </c>
       <c r="I17" s="7">
-        <v>160279</v>
+        <v>90920</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
-        <v>285</v>
+        <v>149</v>
       </c>
       <c r="N17" s="7">
-        <v>299545</v>
+        <v>154813</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,49 +6044,49 @@
         <v>29</v>
       </c>
       <c r="C18" s="7">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="D18" s="7">
-        <v>64031</v>
+        <v>23718</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>228</v>
+        <v>358</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>331</v>
+        <v>359</v>
       </c>
       <c r="H18" s="7">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="I18" s="7">
-        <v>79039</v>
+        <v>36681</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>333</v>
+        <v>361</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>334</v>
+        <v>362</v>
       </c>
       <c r="M18" s="7">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="N18" s="7">
-        <v>143070</v>
+        <v>60398</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>335</v>
+        <v>363</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>336</v>
+        <v>364</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>337</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,10 +6095,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>621</v>
+        <v>343</v>
       </c>
       <c r="D19" s="7">
-        <v>663364</v>
+        <v>372814</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -6014,10 +6110,10 @@
         <v>39</v>
       </c>
       <c r="H19" s="7">
-        <v>622</v>
+        <v>369</v>
       </c>
       <c r="I19" s="7">
-        <v>670345</v>
+        <v>386981</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -6029,10 +6125,10 @@
         <v>39</v>
       </c>
       <c r="M19" s="7">
-        <v>1243</v>
+        <v>712</v>
       </c>
       <c r="N19" s="7">
-        <v>1333709</v>
+        <v>759796</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -6058,13 +6154,13 @@
         <v>144215</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>339</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>340</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>131</v>
@@ -6073,13 +6169,13 @@
         <v>137449</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="M20" s="7">
         <v>265</v>
@@ -6088,13 +6184,13 @@
         <v>281664</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6109,13 +6205,13 @@
         <v>51461</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>349</v>
+        <v>273</v>
       </c>
       <c r="H21" s="7">
         <v>66</v>
@@ -6124,13 +6220,13 @@
         <v>68222</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="M21" s="7">
         <v>112</v>
@@ -6139,13 +6235,13 @@
         <v>119683</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6160,13 +6256,13 @@
         <v>16942</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="H22" s="7">
         <v>15</v>
@@ -6175,13 +6271,13 @@
         <v>13920</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="M22" s="7">
         <v>31</v>
@@ -6193,10 +6289,10 @@
         <v>63</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,13 +6360,13 @@
         <v>189387</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="H24" s="7">
         <v>205</v>
@@ -6279,13 +6375,13 @@
         <v>214613</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="M24" s="7">
         <v>388</v>
@@ -6294,13 +6390,13 @@
         <v>404000</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,13 +6411,13 @@
         <v>73530</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="H25" s="7">
         <v>57</v>
@@ -6330,13 +6426,13 @@
         <v>58321</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>196</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="M25" s="7">
         <v>125</v>
@@ -6345,13 +6441,13 @@
         <v>131851</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>378</v>
+        <v>404</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6366,13 +6462,13 @@
         <v>11065</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -6381,13 +6477,13 @@
         <v>7096</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>382</v>
+        <v>408</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>383</v>
+        <v>409</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -6396,13 +6492,13 @@
         <v>18161</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>385</v>
+        <v>411</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>387</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,13 +6566,13 @@
         <v>431956</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>388</v>
+        <v>414</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="H28" s="7">
         <v>447</v>
@@ -6485,13 +6581,13 @@
         <v>487996</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>390</v>
+        <v>416</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>392</v>
+        <v>418</v>
       </c>
       <c r="M28" s="7">
         <v>844</v>
@@ -6500,13 +6596,13 @@
         <v>919952</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>394</v>
+        <v>420</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,13 +6617,13 @@
         <v>189784</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>396</v>
+        <v>422</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>398</v>
+        <v>424</v>
       </c>
       <c r="H29" s="7">
         <v>155</v>
@@ -6536,13 +6632,13 @@
         <v>167811</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="M29" s="7">
         <v>337</v>
@@ -6551,13 +6647,13 @@
         <v>357595</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,13 +6668,13 @@
         <v>41048</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="H30" s="7">
         <v>34</v>
@@ -6587,13 +6683,13 @@
         <v>38046</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="M30" s="7">
         <v>73</v>
@@ -6602,13 +6698,13 @@
         <v>79094</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>413</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,13 +6772,13 @@
         <v>557001</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="H32" s="7">
         <v>567</v>
@@ -6691,13 +6787,13 @@
         <v>615521</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="M32" s="7">
         <v>1082</v>
@@ -6706,13 +6802,13 @@
         <v>1172522</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6727,13 +6823,13 @@
         <v>194396</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="H33" s="7">
         <v>160</v>
@@ -6742,13 +6838,13 @@
         <v>176400</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="M33" s="7">
         <v>336</v>
@@ -6757,13 +6853,13 @@
         <v>370796</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>431</v>
+        <v>457</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6778,13 +6874,13 @@
         <v>27702</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="H34" s="7">
         <v>30</v>
@@ -6793,13 +6889,13 @@
         <v>31932</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="M34" s="7">
         <v>56</v>
@@ -6808,13 +6904,13 @@
         <v>59633</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,13 +6978,13 @@
         <v>2339811</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="H36" s="7">
         <v>2313</v>
@@ -6897,28 +6993,28 @@
         <v>2496706</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="M36" s="7">
         <v>4500</v>
       </c>
       <c r="N36" s="7">
-        <v>4836517</v>
+        <v>4836518</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,13 +7029,13 @@
         <v>864025</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="H37" s="7">
         <v>762</v>
@@ -6948,13 +7044,13 @@
         <v>819907</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="M37" s="7">
         <v>1577</v>
@@ -6963,13 +7059,13 @@
         <v>1683933</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>457</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6984,10 +7080,10 @@
         <v>216633</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>459</v>
+        <v>485</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>228</v>
@@ -6999,13 +7095,13 @@
         <v>235845</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>461</v>
+        <v>487</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="M38" s="7">
         <v>419</v>
@@ -7014,13 +7110,13 @@
         <v>452478</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>463</v>
+        <v>489</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>465</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7062,7 +7158,7 @@
         <v>6496</v>
       </c>
       <c r="N39" s="7">
-        <v>6972928</v>
+        <v>6972929</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>39</v>
@@ -7100,7 +7196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF5F857-E2DF-437D-8F68-51FB6BAF6D4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17F3BD98-66FD-45E6-AA91-8D545B6B8DEA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7117,7 +7213,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7224,13 +7320,13 @@
         <v>174320</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>467</v>
+        <v>493</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="H4" s="7">
         <v>169</v>
@@ -7239,13 +7335,13 @@
         <v>169103</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="M4" s="7">
         <v>328</v>
@@ -7254,13 +7350,13 @@
         <v>343423</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7275,13 +7371,13 @@
         <v>86879</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="H5" s="7">
         <v>63</v>
@@ -7290,13 +7386,13 @@
         <v>69391</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>479</v>
+        <v>505</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>481</v>
+        <v>507</v>
       </c>
       <c r="M5" s="7">
         <v>142</v>
@@ -7308,10 +7404,10 @@
         <v>216</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>483</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7326,13 +7422,13 @@
         <v>31474</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="H6" s="7">
         <v>44</v>
@@ -7341,13 +7437,13 @@
         <v>49236</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>197</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="M6" s="7">
         <v>71</v>
@@ -7359,10 +7455,10 @@
         <v>121</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>489</v>
+        <v>280</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>490</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7430,13 +7526,13 @@
         <v>331726</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>493</v>
+        <v>518</v>
       </c>
       <c r="H8" s="7">
         <v>318</v>
@@ -7445,13 +7541,13 @@
         <v>344572</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>495</v>
+        <v>520</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>496</v>
+        <v>521</v>
       </c>
       <c r="M8" s="7">
         <v>627</v>
@@ -7460,13 +7556,13 @@
         <v>676298</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>497</v>
+        <v>522</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>499</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7481,13 +7577,13 @@
         <v>138553</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>502</v>
+        <v>527</v>
       </c>
       <c r="H9" s="7">
         <v>138</v>
@@ -7496,10 +7592,10 @@
         <v>147669</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>503</v>
+        <v>528</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>154</v>
@@ -7511,13 +7607,13 @@
         <v>286222</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>504</v>
+        <v>529</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>505</v>
+        <v>530</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7532,13 +7628,13 @@
         <v>32296</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>507</v>
+        <v>532</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -7547,13 +7643,13 @@
         <v>30843</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>511</v>
+        <v>536</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>512</v>
+        <v>537</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -7562,13 +7658,13 @@
         <v>63139</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>513</v>
+        <v>364</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7636,13 +7732,13 @@
         <v>261921</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="H12" s="7">
         <v>266</v>
@@ -7651,13 +7747,13 @@
         <v>269973</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>517</v>
+        <v>541</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>518</v>
+        <v>542</v>
       </c>
       <c r="M12" s="7">
         <v>541</v>
@@ -7666,13 +7762,13 @@
         <v>531894</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>521</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7687,13 +7783,13 @@
         <v>50964</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>522</v>
+        <v>546</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>523</v>
+        <v>547</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
@@ -7705,10 +7801,10 @@
         <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>524</v>
+        <v>548</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>525</v>
+        <v>549</v>
       </c>
       <c r="M13" s="7">
         <v>114</v>
@@ -7717,13 +7813,13 @@
         <v>110921</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>527</v>
+        <v>551</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>528</v>
+        <v>552</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7738,13 +7834,13 @@
         <v>5680</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>529</v>
+        <v>553</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>531</v>
+        <v>555</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -7753,13 +7849,13 @@
         <v>6379</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>534</v>
+        <v>558</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -7768,13 +7864,13 @@
         <v>12059</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>535</v>
+        <v>559</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>536</v>
+        <v>560</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7842,13 +7938,13 @@
         <v>257985</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>538</v>
+        <v>562</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>539</v>
+        <v>563</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="H16" s="7">
         <v>246</v>
@@ -7857,13 +7953,13 @@
         <v>264291</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>541</v>
+        <v>346</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="M16" s="7">
         <v>490</v>
@@ -7872,13 +7968,13 @@
         <v>522276</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>544</v>
+        <v>567</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>545</v>
+        <v>568</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>546</v>
+        <v>569</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7893,13 +7989,13 @@
         <v>74050</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>547</v>
+        <v>570</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>548</v>
+        <v>571</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>549</v>
+        <v>572</v>
       </c>
       <c r="H17" s="7">
         <v>75</v>
@@ -7908,13 +8004,13 @@
         <v>81496</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>551</v>
+        <v>574</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>552</v>
+        <v>575</v>
       </c>
       <c r="M17" s="7">
         <v>148</v>
@@ -7923,13 +8019,13 @@
         <v>155546</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>553</v>
+        <v>576</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>554</v>
+        <v>577</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>555</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,13 +8040,13 @@
         <v>36662</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>557</v>
+        <v>580</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>558</v>
+        <v>581</v>
       </c>
       <c r="H18" s="7">
         <v>37</v>
@@ -7959,13 +8055,13 @@
         <v>41496</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>559</v>
+        <v>582</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>560</v>
+        <v>583</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>561</v>
+        <v>584</v>
       </c>
       <c r="M18" s="7">
         <v>73</v>
@@ -7974,13 +8070,13 @@
         <v>78158</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>562</v>
+        <v>365</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>563</v>
+        <v>585</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>564</v>
+        <v>586</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,13 +8144,13 @@
         <v>125140</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>567</v>
+        <v>589</v>
       </c>
       <c r="H20" s="7">
         <v>146</v>
@@ -8063,13 +8159,13 @@
         <v>142462</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>568</v>
+        <v>590</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="M20" s="7">
         <v>272</v>
@@ -8078,13 +8174,13 @@
         <v>267603</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>569</v>
+        <v>591</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>570</v>
+        <v>592</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>571</v>
+        <v>593</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,13 +8195,13 @@
         <v>77078</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>572</v>
+        <v>594</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>573</v>
+        <v>595</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>574</v>
+        <v>596</v>
       </c>
       <c r="H21" s="7">
         <v>60</v>
@@ -8114,13 +8210,13 @@
         <v>60414</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>576</v>
+        <v>598</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>577</v>
+        <v>599</v>
       </c>
       <c r="M21" s="7">
         <v>137</v>
@@ -8129,13 +8225,13 @@
         <v>137492</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>579</v>
+        <v>601</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>580</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8150,13 +8246,13 @@
         <v>9003</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>581</v>
+        <v>603</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>582</v>
+        <v>604</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>583</v>
+        <v>605</v>
       </c>
       <c r="H22" s="7">
         <v>17</v>
@@ -8165,13 +8261,13 @@
         <v>15710</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>585</v>
+        <v>607</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>586</v>
+        <v>608</v>
       </c>
       <c r="M22" s="7">
         <v>26</v>
@@ -8180,13 +8276,13 @@
         <v>24713</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>587</v>
+        <v>609</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>588</v>
+        <v>610</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8254,13 +8350,13 @@
         <v>221176</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="H24" s="7">
         <v>221</v>
@@ -8269,13 +8365,13 @@
         <v>228920</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>591</v>
+        <v>613</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="M24" s="7">
         <v>439</v>
@@ -8284,13 +8380,13 @@
         <v>450096</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>595</v>
+        <v>617</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>597</v>
+        <v>619</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8305,13 +8401,13 @@
         <v>37724</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>598</v>
+        <v>620</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>599</v>
+        <v>621</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>600</v>
+        <v>622</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -8320,13 +8416,13 @@
         <v>29452</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>602</v>
+        <v>624</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>603</v>
+        <v>625</v>
       </c>
       <c r="M25" s="7">
         <v>65</v>
@@ -8335,13 +8431,13 @@
         <v>67176</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>604</v>
+        <v>626</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>556</v>
+        <v>579</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>605</v>
+        <v>627</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8356,13 +8452,13 @@
         <v>4222</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>606</v>
+        <v>628</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>608</v>
+        <v>630</v>
       </c>
       <c r="H26" s="7">
         <v>13</v>
@@ -8371,13 +8467,13 @@
         <v>13708</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>610</v>
+        <v>632</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -8386,13 +8482,13 @@
         <v>17931</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>611</v>
+        <v>633</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>612</v>
+        <v>634</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>613</v>
+        <v>635</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8460,13 +8556,13 @@
         <v>405190</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>614</v>
+        <v>636</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>615</v>
+        <v>637</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="H28" s="7">
         <v>387</v>
@@ -8478,10 +8574,10 @@
         <v>207</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>617</v>
+        <v>639</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>618</v>
+        <v>640</v>
       </c>
       <c r="M28" s="7">
         <v>745</v>
@@ -8490,13 +8586,13 @@
         <v>821146</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>619</v>
+        <v>641</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>620</v>
+        <v>642</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>621</v>
+        <v>643</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8511,13 +8607,13 @@
         <v>215948</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>623</v>
+        <v>645</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>624</v>
+        <v>646</v>
       </c>
       <c r="H29" s="7">
         <v>212</v>
@@ -8526,13 +8622,13 @@
         <v>226260</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>625</v>
+        <v>647</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>626</v>
+        <v>648</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>627</v>
+        <v>649</v>
       </c>
       <c r="M29" s="7">
         <v>403</v>
@@ -8541,13 +8637,13 @@
         <v>442209</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>628</v>
+        <v>650</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>629</v>
+        <v>651</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>630</v>
+        <v>652</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8562,13 +8658,13 @@
         <v>35419</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>631</v>
+        <v>653</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>632</v>
+        <v>654</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>633</v>
+        <v>655</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -8577,13 +8673,13 @@
         <v>47808</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>635</v>
+        <v>657</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>636</v>
+        <v>658</v>
       </c>
       <c r="M30" s="7">
         <v>77</v>
@@ -8592,10 +8688,10 @@
         <v>83227</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>637</v>
+        <v>659</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>638</v>
+        <v>660</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>37</v>
@@ -8666,13 +8762,13 @@
         <v>631706</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>640</v>
+        <v>662</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
       <c r="H32" s="7">
         <v>635</v>
@@ -8681,28 +8777,28 @@
         <v>690710</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>642</v>
+        <v>664</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>643</v>
+        <v>665</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="M32" s="7">
         <v>1243</v>
       </c>
       <c r="N32" s="7">
-        <v>1322417</v>
+        <v>1322416</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>647</v>
+        <v>669</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8717,13 +8813,13 @@
         <v>128641</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>121</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="H33" s="7">
         <v>96</v>
@@ -8732,28 +8828,28 @@
         <v>106436</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="M33" s="7">
         <v>221</v>
       </c>
       <c r="N33" s="7">
-        <v>235078</v>
+        <v>235077</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>334</v>
+        <v>675</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>653</v>
+        <v>676</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>654</v>
+        <v>677</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8768,13 +8864,13 @@
         <v>18236</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>655</v>
+        <v>678</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>656</v>
+        <v>679</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
       <c r="H34" s="7">
         <v>22</v>
@@ -8783,13 +8879,13 @@
         <v>26141</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>658</v>
+        <v>681</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>659</v>
+        <v>682</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>660</v>
+        <v>683</v>
       </c>
       <c r="M34" s="7">
         <v>39</v>
@@ -8798,13 +8894,13 @@
         <v>44377</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>661</v>
+        <v>684</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>662</v>
+        <v>685</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>657</v>
+        <v>680</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8846,7 +8942,7 @@
         <v>1503</v>
       </c>
       <c r="N35" s="7">
-        <v>1601872</v>
+        <v>1601871</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>39</v>
@@ -8872,13 +8968,13 @@
         <v>2409164</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>663</v>
+        <v>686</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>664</v>
+        <v>687</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>665</v>
+        <v>688</v>
       </c>
       <c r="H36" s="7">
         <v>2388</v>
@@ -8887,13 +8983,13 @@
         <v>2525987</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>666</v>
+        <v>689</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>667</v>
+        <v>690</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>668</v>
+        <v>691</v>
       </c>
       <c r="M36" s="7">
         <v>4685</v>
@@ -8902,13 +8998,13 @@
         <v>4935152</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>669</v>
+        <v>692</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>670</v>
+        <v>693</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>671</v>
+        <v>694</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8923,13 +9019,13 @@
         <v>809838</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>672</v>
+        <v>695</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>328</v>
+        <v>696</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>673</v>
+        <v>697</v>
       </c>
       <c r="H37" s="7">
         <v>732</v>
@@ -8938,10 +9034,10 @@
         <v>781075</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>674</v>
+        <v>698</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>675</v>
+        <v>699</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>141</v>
@@ -8953,13 +9049,13 @@
         <v>1590913</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>676</v>
+        <v>700</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>677</v>
+        <v>701</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>678</v>
+        <v>702</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8974,13 +9070,13 @@
         <v>172992</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>679</v>
+        <v>703</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>680</v>
+        <v>704</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>681</v>
+        <v>705</v>
       </c>
       <c r="H38" s="7">
         <v>213</v>
@@ -8989,13 +9085,13 @@
         <v>231322</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>682</v>
+        <v>706</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>587</v>
+        <v>609</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>683</v>
+        <v>707</v>
       </c>
       <c r="M38" s="7">
         <v>374</v>
@@ -9004,13 +9100,13 @@
         <v>404314</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>684</v>
+        <v>708</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>685</v>
+        <v>709</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -9090,7 +9186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1000F44D-4A8F-4CC0-8D63-0F241B34B099}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{211F6E79-1969-46E3-9F46-4DD1C5720C85}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9107,7 +9203,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>686</v>
+        <v>710</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9211,46 +9307,46 @@
         <v>314</v>
       </c>
       <c r="D4" s="7">
-        <v>247057</v>
+        <v>296048</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>687</v>
+        <v>711</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>688</v>
+        <v>712</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>689</v>
+        <v>713</v>
       </c>
       <c r="H4" s="7">
         <v>521</v>
       </c>
       <c r="I4" s="7">
-        <v>261551</v>
+        <v>277479</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>690</v>
+        <v>714</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>691</v>
+        <v>715</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>692</v>
+        <v>716</v>
       </c>
       <c r="M4" s="7">
         <v>835</v>
       </c>
       <c r="N4" s="7">
-        <v>508607</v>
+        <v>573526</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>693</v>
+        <v>717</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>694</v>
+        <v>718</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>695</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9262,46 +9358,46 @@
         <v>17</v>
       </c>
       <c r="D5" s="7">
-        <v>13241</v>
+        <v>15395</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>697</v>
+        <v>721</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>9216</v>
+        <v>11497</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>698</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>529</v>
+        <v>722</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>699</v>
+        <v>169</v>
       </c>
       <c r="M5" s="7">
         <v>32</v>
       </c>
       <c r="N5" s="7">
-        <v>22457</v>
+        <v>26892</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>700</v>
+        <v>723</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>701</v>
+        <v>724</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>702</v>
+        <v>725</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9319,40 +9415,40 @@
         <v>144</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>703</v>
+        <v>726</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>704</v>
+        <v>727</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>705</v>
+        <v>728</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>144</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>706</v>
+        <v>729</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
       </c>
       <c r="N6" s="7">
-        <v>636</v>
+        <v>659</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>707</v>
+        <v>730</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>144</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>708</v>
+        <v>731</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9364,7 +9460,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>39</v>
@@ -9379,7 +9475,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>39</v>
@@ -9394,7 +9490,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
@@ -9417,46 +9513,46 @@
         <v>294</v>
       </c>
       <c r="D8" s="7">
-        <v>411485</v>
+        <v>412646</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>709</v>
+        <v>732</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>710</v>
+        <v>733</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>711</v>
+        <v>617</v>
       </c>
       <c r="H8" s="7">
         <v>570</v>
       </c>
       <c r="I8" s="7">
-        <v>447659</v>
+        <v>415633</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>712</v>
+        <v>618</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
       <c r="M8" s="7">
         <v>864</v>
       </c>
       <c r="N8" s="7">
-        <v>859144</v>
+        <v>828279</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>716</v>
+        <v>737</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9468,46 +9564,46 @@
         <v>79</v>
       </c>
       <c r="D9" s="7">
-        <v>96690</v>
+        <v>94892</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
       <c r="H9" s="7">
         <v>125</v>
       </c>
       <c r="I9" s="7">
-        <v>91331</v>
+        <v>84774</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
       <c r="M9" s="7">
         <v>204</v>
       </c>
       <c r="N9" s="7">
-        <v>188021</v>
+        <v>179667</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9519,46 +9615,46 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>11122</v>
+        <v>10852</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>728</v>
+        <v>749</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>729</v>
+        <v>750</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
       </c>
       <c r="I10" s="7">
-        <v>15577</v>
+        <v>14562</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>439</v>
+        <v>751</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>535</v>
+        <v>752</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>700</v>
+        <v>607</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>26699</v>
+        <v>25414</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>730</v>
+        <v>753</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>731</v>
+        <v>754</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>732</v>
+        <v>755</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9570,7 +9666,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>39</v>
@@ -9585,7 +9681,7 @@
         <v>717</v>
       </c>
       <c r="I11" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>39</v>
@@ -9600,7 +9696,7 @@
         <v>1099</v>
       </c>
       <c r="N11" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>39</v>
@@ -9623,46 +9719,46 @@
         <v>306</v>
       </c>
       <c r="D12" s="7">
-        <v>274618</v>
+        <v>269324</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>733</v>
+        <v>756</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>734</v>
+        <v>757</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>735</v>
+        <v>758</v>
       </c>
       <c r="H12" s="7">
         <v>440</v>
       </c>
       <c r="I12" s="7">
-        <v>298590</v>
+        <v>279135</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>736</v>
+        <v>759</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>737</v>
+        <v>760</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>738</v>
+        <v>761</v>
       </c>
       <c r="M12" s="7">
         <v>746</v>
       </c>
       <c r="N12" s="7">
-        <v>573208</v>
+        <v>548458</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>739</v>
+        <v>762</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>740</v>
+        <v>763</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>741</v>
+        <v>764</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9674,46 +9770,46 @@
         <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>24023</v>
+        <v>23467</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>742</v>
+        <v>765</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>743</v>
+        <v>766</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>744</v>
+        <v>767</v>
       </c>
       <c r="H13" s="7">
         <v>60</v>
       </c>
       <c r="I13" s="7">
-        <v>48292</v>
+        <v>45419</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>745</v>
+        <v>768</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>746</v>
+        <v>769</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>747</v>
+        <v>770</v>
       </c>
       <c r="M13" s="7">
         <v>88</v>
       </c>
       <c r="N13" s="7">
-        <v>72315</v>
+        <v>68886</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>748</v>
+        <v>771</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>749</v>
+        <v>537</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>750</v>
+        <v>772</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9725,46 +9821,46 @@
         <v>25</v>
       </c>
       <c r="D14" s="7">
-        <v>22550</v>
+        <v>22240</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>753</v>
+        <v>775</v>
       </c>
       <c r="H14" s="7">
         <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>26401</v>
+        <v>24574</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>754</v>
+        <v>776</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
       </c>
       <c r="N14" s="7">
-        <v>48951</v>
+        <v>46814</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9776,7 +9872,7 @@
         <v>359</v>
       </c>
       <c r="D15" s="7">
-        <v>321191</v>
+        <v>315031</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>39</v>
@@ -9791,7 +9887,7 @@
         <v>536</v>
       </c>
       <c r="I15" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>39</v>
@@ -9806,7 +9902,7 @@
         <v>895</v>
       </c>
       <c r="N15" s="7">
-        <v>694474</v>
+        <v>664158</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>39</v>
@@ -9829,46 +9925,46 @@
         <v>206</v>
       </c>
       <c r="D16" s="7">
-        <v>238473</v>
+        <v>231718</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>759</v>
+        <v>781</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="H16" s="7">
         <v>453</v>
       </c>
       <c r="I16" s="7">
-        <v>323961</v>
+        <v>379724</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>763</v>
+        <v>785</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>764</v>
+        <v>786</v>
       </c>
       <c r="M16" s="7">
         <v>659</v>
       </c>
       <c r="N16" s="7">
-        <v>562433</v>
+        <v>611442</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>765</v>
+        <v>787</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>766</v>
+        <v>788</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>767</v>
+        <v>789</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9880,46 +9976,46 @@
         <v>72</v>
       </c>
       <c r="D17" s="7">
-        <v>73502</v>
+        <v>70884</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>768</v>
+        <v>790</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>769</v>
+        <v>791</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>102</v>
       </c>
       <c r="I17" s="7">
-        <v>79713</v>
+        <v>72744</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>770</v>
+        <v>625</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="M17" s="7">
         <v>174</v>
       </c>
       <c r="N17" s="7">
-        <v>153215</v>
+        <v>143627</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9931,46 +10027,46 @@
         <v>14</v>
       </c>
       <c r="D18" s="7">
-        <v>10266</v>
+        <v>9955</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>731</v>
+        <v>798</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
       <c r="H18" s="7">
         <v>43</v>
       </c>
       <c r="I18" s="7">
-        <v>24220</v>
+        <v>22637</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>778</v>
+        <v>800</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>779</v>
+        <v>801</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>780</v>
+        <v>802</v>
       </c>
       <c r="M18" s="7">
         <v>57</v>
       </c>
       <c r="N18" s="7">
-        <v>34486</v>
+        <v>32592</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>412</v>
+        <v>803</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>781</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>313</v>
+        <v>804</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9982,7 +10078,7 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>39</v>
@@ -9997,7 +10093,7 @@
         <v>598</v>
       </c>
       <c r="I19" s="7">
-        <v>427894</v>
+        <v>475105</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>39</v>
@@ -10012,7 +10108,7 @@
         <v>890</v>
       </c>
       <c r="N19" s="7">
-        <v>750134</v>
+        <v>787662</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>39</v>
@@ -10035,46 +10131,46 @@
         <v>236</v>
       </c>
       <c r="D20" s="7">
-        <v>166355</v>
+        <v>151263</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>782</v>
+        <v>805</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>709</v>
+        <v>806</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>783</v>
+        <v>807</v>
       </c>
       <c r="H20" s="7">
         <v>437</v>
       </c>
       <c r="I20" s="7">
-        <v>232040</v>
+        <v>233879</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>784</v>
+        <v>808</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>785</v>
+        <v>809</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>786</v>
+        <v>810</v>
       </c>
       <c r="M20" s="7">
         <v>673</v>
       </c>
       <c r="N20" s="7">
-        <v>398395</v>
+        <v>385142</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>787</v>
+        <v>811</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>595</v>
+        <v>812</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>788</v>
+        <v>813</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10086,46 +10182,46 @@
         <v>35</v>
       </c>
       <c r="D21" s="7">
-        <v>24878</v>
+        <v>22517</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>789</v>
+        <v>814</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>790</v>
+        <v>815</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>791</v>
+        <v>816</v>
       </c>
       <c r="H21" s="7">
         <v>55</v>
       </c>
       <c r="I21" s="7">
-        <v>26396</v>
+        <v>23900</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>792</v>
+        <v>817</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>793</v>
+        <v>818</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>794</v>
+        <v>819</v>
       </c>
       <c r="M21" s="7">
         <v>90</v>
       </c>
       <c r="N21" s="7">
-        <v>51274</v>
+        <v>46417</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>795</v>
+        <v>820</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>796</v>
+        <v>31</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>797</v>
+        <v>821</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -10137,46 +10233,46 @@
         <v>8</v>
       </c>
       <c r="D22" s="7">
-        <v>5515</v>
+        <v>4962</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>798</v>
+        <v>822</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>1077</v>
+        <v>1000</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
       </c>
       <c r="N22" s="7">
-        <v>6592</v>
+        <v>5962</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>656</v>
+        <v>828</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>804</v>
+        <v>829</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>805</v>
+        <v>830</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10188,7 +10284,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>39</v>
@@ -10203,7 +10299,7 @@
         <v>495</v>
       </c>
       <c r="I23" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>39</v>
@@ -10218,7 +10314,7 @@
         <v>774</v>
       </c>
       <c r="N23" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>39</v>
@@ -10241,46 +10337,46 @@
         <v>316</v>
       </c>
       <c r="D24" s="7">
-        <v>235149</v>
+        <v>228951</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>806</v>
+        <v>831</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>807</v>
+        <v>832</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>808</v>
+        <v>833</v>
       </c>
       <c r="H24" s="7">
         <v>390</v>
       </c>
       <c r="I24" s="7">
-        <v>231614</v>
+        <v>216345</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>809</v>
+        <v>834</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>810</v>
+        <v>835</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>811</v>
+        <v>836</v>
       </c>
       <c r="M24" s="7">
         <v>706</v>
       </c>
       <c r="N24" s="7">
-        <v>466763</v>
+        <v>445296</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>813</v>
+        <v>838</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>814</v>
+        <v>839</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10292,46 +10388,46 @@
         <v>38</v>
       </c>
       <c r="D25" s="7">
-        <v>28464</v>
+        <v>27458</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>815</v>
+        <v>840</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>381</v>
+        <v>841</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>816</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>46</v>
       </c>
       <c r="I25" s="7">
-        <v>28115</v>
+        <v>26090</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>119</v>
+        <v>842</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>817</v>
+        <v>843</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>818</v>
+        <v>844</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
       </c>
       <c r="N25" s="7">
-        <v>56579</v>
+        <v>53548</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>846</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>819</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>820</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>821</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10343,46 +10439,46 @@
         <v>17</v>
       </c>
       <c r="D26" s="7">
-        <v>13610</v>
+        <v>13227</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>822</v>
+        <v>847</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>823</v>
+        <v>848</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>824</v>
+        <v>849</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
       </c>
       <c r="I26" s="7">
-        <v>15893</v>
+        <v>14622</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>825</v>
+        <v>850</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>360</v>
+        <v>851</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>826</v>
+        <v>852</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
       </c>
       <c r="N26" s="7">
-        <v>29503</v>
+        <v>27848</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>828</v>
+        <v>854</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10394,7 +10490,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>39</v>
@@ -10409,7 +10505,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>39</v>
@@ -10424,7 +10520,7 @@
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>39</v>
@@ -10447,46 +10543,46 @@
         <v>388</v>
       </c>
       <c r="D28" s="7">
-        <v>404100</v>
+        <v>398447</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>830</v>
+        <v>856</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>831</v>
+        <v>857</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>832</v>
+        <v>858</v>
       </c>
       <c r="H28" s="7">
         <v>643</v>
       </c>
       <c r="I28" s="7">
-        <v>457006</v>
+        <v>425910</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>833</v>
+        <v>859</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>834</v>
+        <v>860</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>835</v>
+        <v>861</v>
       </c>
       <c r="M28" s="7">
         <v>1031</v>
       </c>
       <c r="N28" s="7">
-        <v>861105</v>
+        <v>824358</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>836</v>
+        <v>266</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>837</v>
+        <v>862</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>838</v>
+        <v>863</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10498,46 +10594,46 @@
         <v>146</v>
       </c>
       <c r="D29" s="7">
-        <v>152739</v>
+        <v>151501</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>839</v>
+        <v>528</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>326</v>
+        <v>699</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>840</v>
+        <v>864</v>
       </c>
       <c r="H29" s="7">
         <v>197</v>
       </c>
       <c r="I29" s="7">
-        <v>250468</v>
+        <v>334871</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>841</v>
+        <v>865</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>842</v>
+        <v>866</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>843</v>
+        <v>867</v>
       </c>
       <c r="M29" s="7">
         <v>343</v>
       </c>
       <c r="N29" s="7">
-        <v>403207</v>
+        <v>486373</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>844</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>845</v>
+        <v>868</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>846</v>
+        <v>869</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10549,46 +10645,46 @@
         <v>62</v>
       </c>
       <c r="D30" s="7">
-        <v>69717</v>
+        <v>73167</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>227</v>
+        <v>870</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>847</v>
+        <v>871</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>848</v>
+        <v>872</v>
       </c>
       <c r="H30" s="7">
         <v>118</v>
       </c>
       <c r="I30" s="7">
-        <v>95284</v>
+        <v>87134</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>849</v>
+        <v>873</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>829</v>
+        <v>874</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>850</v>
+        <v>282</v>
       </c>
       <c r="M30" s="7">
         <v>180</v>
       </c>
       <c r="N30" s="7">
-        <v>165002</v>
+        <v>160302</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>851</v>
+        <v>875</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>796</v>
+        <v>876</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>852</v>
+        <v>877</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10600,7 +10696,7 @@
         <v>596</v>
       </c>
       <c r="D31" s="7">
-        <v>626556</v>
+        <v>623116</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>39</v>
@@ -10615,7 +10711,7 @@
         <v>958</v>
       </c>
       <c r="I31" s="7">
-        <v>802758</v>
+        <v>847915</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>39</v>
@@ -10630,7 +10726,7 @@
         <v>1554</v>
       </c>
       <c r="N31" s="7">
-        <v>1429314</v>
+        <v>1471032</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>39</v>
@@ -10653,46 +10749,46 @@
         <v>543</v>
       </c>
       <c r="D32" s="7">
-        <v>634938</v>
+        <v>737865</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>853</v>
+        <v>878</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>854</v>
+        <v>879</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>855</v>
+        <v>880</v>
       </c>
       <c r="H32" s="7">
         <v>755</v>
       </c>
       <c r="I32" s="7">
-        <v>607683</v>
+        <v>503303</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>856</v>
+        <v>881</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>857</v>
+        <v>882</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>858</v>
+        <v>883</v>
       </c>
       <c r="M32" s="7">
         <v>1298</v>
       </c>
       <c r="N32" s="7">
-        <v>1242621</v>
+        <v>1241168</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>859</v>
+        <v>884</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>860</v>
+        <v>885</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>861</v>
+        <v>886</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10704,46 +10800,46 @@
         <v>176</v>
       </c>
       <c r="D33" s="7">
-        <v>180428</v>
+        <v>153271</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>323</v>
+        <v>887</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>862</v>
+        <v>888</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>863</v>
+        <v>889</v>
       </c>
       <c r="H33" s="7">
         <v>256</v>
       </c>
       <c r="I33" s="7">
-        <v>215433</v>
+        <v>177383</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>864</v>
+        <v>890</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>865</v>
+        <v>796</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>866</v>
+        <v>891</v>
       </c>
       <c r="M33" s="7">
         <v>432</v>
       </c>
       <c r="N33" s="7">
-        <v>395861</v>
+        <v>330654</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>867</v>
+        <v>892</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>868</v>
+        <v>893</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>505</v>
+        <v>528</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10755,46 +10851,46 @@
         <v>43</v>
       </c>
       <c r="D34" s="7">
-        <v>44062</v>
+        <v>37584</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>434</v>
+        <v>894</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>869</v>
+        <v>895</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>870</v>
+        <v>338</v>
       </c>
       <c r="H34" s="7">
         <v>50</v>
       </c>
       <c r="I34" s="7">
-        <v>44296</v>
+        <v>36188</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>871</v>
+        <v>896</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>409</v>
+        <v>333</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>872</v>
+        <v>897</v>
       </c>
       <c r="M34" s="7">
         <v>93</v>
       </c>
       <c r="N34" s="7">
-        <v>88358</v>
+        <v>73772</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>873</v>
+        <v>898</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>874</v>
+        <v>899</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>405</v>
+        <v>900</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10806,7 +10902,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>39</v>
@@ -10821,7 +10917,7 @@
         <v>1061</v>
       </c>
       <c r="I35" s="7">
-        <v>867412</v>
+        <v>716874</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>39</v>
@@ -10836,7 +10932,7 @@
         <v>1823</v>
       </c>
       <c r="N35" s="7">
-        <v>1726840</v>
+        <v>1645594</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>39</v>
@@ -10859,46 +10955,46 @@
         <v>2603</v>
       </c>
       <c r="D36" s="7">
-        <v>2612174</v>
+        <v>2726260</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>713</v>
+        <v>901</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>875</v>
+        <v>902</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>876</v>
+        <v>903</v>
       </c>
       <c r="H36" s="7">
         <v>4209</v>
       </c>
       <c r="I36" s="7">
-        <v>2860102</v>
+        <v>2731407</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>877</v>
+        <v>904</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>878</v>
+        <v>905</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>879</v>
+        <v>906</v>
       </c>
       <c r="M36" s="7">
         <v>6812</v>
       </c>
       <c r="N36" s="7">
-        <v>5472276</v>
+        <v>5457668</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>880</v>
+        <v>907</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>881</v>
+        <v>441</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>882</v>
+        <v>908</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10910,46 +11006,46 @@
         <v>591</v>
       </c>
       <c r="D37" s="7">
-        <v>593964</v>
+        <v>559387</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>883</v>
+        <v>909</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>884</v>
+        <v>910</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>885</v>
+        <v>911</v>
       </c>
       <c r="H37" s="7">
         <v>856</v>
       </c>
       <c r="I37" s="7">
-        <v>748964</v>
+        <v>776678</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>886</v>
+        <v>912</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>887</v>
+        <v>674</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>840</v>
+        <v>913</v>
       </c>
       <c r="M37" s="7">
         <v>1447</v>
       </c>
       <c r="N37" s="7">
-        <v>1342929</v>
+        <v>1336065</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>888</v>
+        <v>914</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>889</v>
+        <v>915</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>890</v>
+        <v>916</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10961,46 +11057,46 @@
         <v>178</v>
       </c>
       <c r="D38" s="7">
-        <v>176842</v>
+        <v>171987</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>891</v>
+        <v>766</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>892</v>
+        <v>654</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>893</v>
+        <v>917</v>
       </c>
       <c r="H38" s="7">
         <v>298</v>
       </c>
       <c r="I38" s="7">
-        <v>223384</v>
+        <v>201375</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>411</v>
+        <v>918</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>894</v>
+        <v>919</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>895</v>
+        <v>920</v>
       </c>
       <c r="M38" s="7">
         <v>476</v>
       </c>
       <c r="N38" s="7">
-        <v>400226</v>
+        <v>373362</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>896</v>
+        <v>921</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>822</v>
+        <v>533</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>897</v>
+        <v>535</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11012,7 +11108,7 @@
         <v>3372</v>
       </c>
       <c r="D39" s="7">
-        <v>3382980</v>
+        <v>3457634</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>39</v>
@@ -11027,7 +11123,7 @@
         <v>5363</v>
       </c>
       <c r="I39" s="7">
-        <v>3832451</v>
+        <v>3709460</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>39</v>
@@ -11042,7 +11138,7 @@
         <v>8735</v>
       </c>
       <c r="N39" s="7">
-        <v>7215431</v>
+        <v>7167095</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>39</v>
